--- a/data/EPNM/interim/calibration_data/NBB_synthetic_GDP.xlsx
+++ b/data/EPNM/interim/calibration_data/NBB_synthetic_GDP.xlsx
@@ -25,193 +25,193 @@
     <t xml:space="preserve">date</t>
   </si>
   <si>
-    <t xml:space="preserve">01</t>
-  </si>
-  <si>
-    <t xml:space="preserve">02</t>
-  </si>
-  <si>
-    <t xml:space="preserve">03</t>
-  </si>
-  <si>
-    <t xml:space="preserve">05-09</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10-12</t>
-  </si>
-  <si>
-    <t xml:space="preserve">13-15</t>
-  </si>
-  <si>
-    <t xml:space="preserve">16</t>
-  </si>
-  <si>
-    <t xml:space="preserve">17</t>
-  </si>
-  <si>
-    <t xml:space="preserve">18</t>
-  </si>
-  <si>
-    <t xml:space="preserve">19</t>
-  </si>
-  <si>
-    <t xml:space="preserve">20</t>
-  </si>
-  <si>
-    <t xml:space="preserve">21</t>
-  </si>
-  <si>
-    <t xml:space="preserve">22</t>
-  </si>
-  <si>
-    <t xml:space="preserve">23</t>
-  </si>
-  <si>
-    <t xml:space="preserve">24</t>
-  </si>
-  <si>
-    <t xml:space="preserve">25</t>
-  </si>
-  <si>
-    <t xml:space="preserve">26</t>
-  </si>
-  <si>
-    <t xml:space="preserve">27</t>
-  </si>
-  <si>
-    <t xml:space="preserve">28</t>
-  </si>
-  <si>
-    <t xml:space="preserve">29</t>
-  </si>
-  <si>
-    <t xml:space="preserve">30</t>
-  </si>
-  <si>
-    <t xml:space="preserve">31-32</t>
-  </si>
-  <si>
-    <t xml:space="preserve">33</t>
-  </si>
-  <si>
-    <t xml:space="preserve">35</t>
-  </si>
-  <si>
-    <t xml:space="preserve">36</t>
-  </si>
-  <si>
-    <t xml:space="preserve">37-39</t>
-  </si>
-  <si>
-    <t xml:space="preserve">41-43</t>
-  </si>
-  <si>
-    <t xml:space="preserve">45</t>
-  </si>
-  <si>
-    <t xml:space="preserve">46</t>
-  </si>
-  <si>
-    <t xml:space="preserve">47</t>
-  </si>
-  <si>
-    <t xml:space="preserve">49</t>
-  </si>
-  <si>
-    <t xml:space="preserve">50</t>
-  </si>
-  <si>
-    <t xml:space="preserve">51</t>
-  </si>
-  <si>
-    <t xml:space="preserve">52</t>
-  </si>
-  <si>
-    <t xml:space="preserve">53</t>
-  </si>
-  <si>
-    <t xml:space="preserve">55-56</t>
-  </si>
-  <si>
-    <t xml:space="preserve">58</t>
-  </si>
-  <si>
-    <t xml:space="preserve">59-60</t>
-  </si>
-  <si>
-    <t xml:space="preserve">61</t>
-  </si>
-  <si>
-    <t xml:space="preserve">62-63</t>
-  </si>
-  <si>
-    <t xml:space="preserve">64</t>
-  </si>
-  <si>
-    <t xml:space="preserve">65</t>
-  </si>
-  <si>
-    <t xml:space="preserve">66</t>
-  </si>
-  <si>
-    <t xml:space="preserve">68</t>
-  </si>
-  <si>
-    <t xml:space="preserve">69-70</t>
-  </si>
-  <si>
-    <t xml:space="preserve">71</t>
-  </si>
-  <si>
-    <t xml:space="preserve">72</t>
-  </si>
-  <si>
-    <t xml:space="preserve">73</t>
-  </si>
-  <si>
-    <t xml:space="preserve">74-75</t>
-  </si>
-  <si>
-    <t xml:space="preserve">77</t>
-  </si>
-  <si>
-    <t xml:space="preserve">78</t>
-  </si>
-  <si>
-    <t xml:space="preserve">79</t>
-  </si>
-  <si>
-    <t xml:space="preserve">80-82</t>
-  </si>
-  <si>
-    <t xml:space="preserve">84</t>
-  </si>
-  <si>
-    <t xml:space="preserve">85</t>
-  </si>
-  <si>
-    <t xml:space="preserve">86</t>
-  </si>
-  <si>
-    <t xml:space="preserve">87-88</t>
-  </si>
-  <si>
-    <t xml:space="preserve">90-92</t>
-  </si>
-  <si>
-    <t xml:space="preserve">93</t>
-  </si>
-  <si>
-    <t xml:space="preserve">94</t>
-  </si>
-  <si>
-    <t xml:space="preserve">95</t>
-  </si>
-  <si>
-    <t xml:space="preserve">96</t>
-  </si>
-  <si>
-    <t xml:space="preserve">97-98</t>
+    <t xml:space="preserve">A01</t>
+  </si>
+  <si>
+    <t xml:space="preserve">A02</t>
+  </si>
+  <si>
+    <t xml:space="preserve">A03</t>
+  </si>
+  <si>
+    <t xml:space="preserve">B05-09</t>
+  </si>
+  <si>
+    <t xml:space="preserve">C10-12</t>
+  </si>
+  <si>
+    <t xml:space="preserve">C13-15</t>
+  </si>
+  <si>
+    <t xml:space="preserve">C16</t>
+  </si>
+  <si>
+    <t xml:space="preserve">C17</t>
+  </si>
+  <si>
+    <t xml:space="preserve">C18</t>
+  </si>
+  <si>
+    <t xml:space="preserve">C19</t>
+  </si>
+  <si>
+    <t xml:space="preserve">C20</t>
+  </si>
+  <si>
+    <t xml:space="preserve">C21</t>
+  </si>
+  <si>
+    <t xml:space="preserve">C22</t>
+  </si>
+  <si>
+    <t xml:space="preserve">C23</t>
+  </si>
+  <si>
+    <t xml:space="preserve">C24</t>
+  </si>
+  <si>
+    <t xml:space="preserve">C25</t>
+  </si>
+  <si>
+    <t xml:space="preserve">C26</t>
+  </si>
+  <si>
+    <t xml:space="preserve">C27</t>
+  </si>
+  <si>
+    <t xml:space="preserve">C28</t>
+  </si>
+  <si>
+    <t xml:space="preserve">C29</t>
+  </si>
+  <si>
+    <t xml:space="preserve">C30</t>
+  </si>
+  <si>
+    <t xml:space="preserve">C31-32</t>
+  </si>
+  <si>
+    <t xml:space="preserve">C33</t>
+  </si>
+  <si>
+    <t xml:space="preserve">D35</t>
+  </si>
+  <si>
+    <t xml:space="preserve">E36</t>
+  </si>
+  <si>
+    <t xml:space="preserve">E37-39</t>
+  </si>
+  <si>
+    <t xml:space="preserve">F41-43</t>
+  </si>
+  <si>
+    <t xml:space="preserve">G45</t>
+  </si>
+  <si>
+    <t xml:space="preserve">G46</t>
+  </si>
+  <si>
+    <t xml:space="preserve">G47</t>
+  </si>
+  <si>
+    <t xml:space="preserve">H49</t>
+  </si>
+  <si>
+    <t xml:space="preserve">H50</t>
+  </si>
+  <si>
+    <t xml:space="preserve">H51</t>
+  </si>
+  <si>
+    <t xml:space="preserve">H52</t>
+  </si>
+  <si>
+    <t xml:space="preserve">H53</t>
+  </si>
+  <si>
+    <t xml:space="preserve">I55-56</t>
+  </si>
+  <si>
+    <t xml:space="preserve">J58</t>
+  </si>
+  <si>
+    <t xml:space="preserve">J59-60</t>
+  </si>
+  <si>
+    <t xml:space="preserve">J61</t>
+  </si>
+  <si>
+    <t xml:space="preserve">J62-63</t>
+  </si>
+  <si>
+    <t xml:space="preserve">K64</t>
+  </si>
+  <si>
+    <t xml:space="preserve">K65</t>
+  </si>
+  <si>
+    <t xml:space="preserve">K66</t>
+  </si>
+  <si>
+    <t xml:space="preserve">L68</t>
+  </si>
+  <si>
+    <t xml:space="preserve">M69-70</t>
+  </si>
+  <si>
+    <t xml:space="preserve">M71</t>
+  </si>
+  <si>
+    <t xml:space="preserve">M72</t>
+  </si>
+  <si>
+    <t xml:space="preserve">M73</t>
+  </si>
+  <si>
+    <t xml:space="preserve">M74-75</t>
+  </si>
+  <si>
+    <t xml:space="preserve">N77</t>
+  </si>
+  <si>
+    <t xml:space="preserve">N78</t>
+  </si>
+  <si>
+    <t xml:space="preserve">N79</t>
+  </si>
+  <si>
+    <t xml:space="preserve">N80-82</t>
+  </si>
+  <si>
+    <t xml:space="preserve">O84</t>
+  </si>
+  <si>
+    <t xml:space="preserve">P85</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Q86</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Q87-88</t>
+  </si>
+  <si>
+    <t xml:space="preserve">R90-92</t>
+  </si>
+  <si>
+    <t xml:space="preserve">R93</t>
+  </si>
+  <si>
+    <t xml:space="preserve">S94</t>
+  </si>
+  <si>
+    <t xml:space="preserve">S95</t>
+  </si>
+  <si>
+    <t xml:space="preserve">S96</t>
+  </si>
+  <si>
+    <t xml:space="preserve">T97-98</t>
   </si>
   <si>
     <t xml:space="preserve">BE</t>
@@ -333,11 +333,11 @@
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="166" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="166" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
       <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="166" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="166" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -436,107 +436,107 @@
   </sheetPr>
   <dimension ref="A1:BM54"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="BG1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="BM2" activeCellId="0" sqref="BM2"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="I33" activeCellId="0" sqref="I33"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.5703125" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="11.58984375" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="1" min="1" style="1" width="11.54"/>
   </cols>
   <sheetData>
-    <row r="1" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="1" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="2" t="s">
+      <c r="B1" s="3" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="2" t="s">
+      <c r="C1" s="3" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="2" t="s">
+      <c r="D1" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="2" t="s">
+      <c r="E1" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="F1" s="2" t="s">
+      <c r="F1" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="G1" s="2" t="s">
+      <c r="G1" s="3" t="s">
         <v>6</v>
       </c>
-      <c r="H1" s="2" t="s">
+      <c r="H1" s="3" t="s">
         <v>7</v>
       </c>
-      <c r="I1" s="2" t="s">
+      <c r="I1" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="J1" s="2" t="s">
+      <c r="J1" s="3" t="s">
         <v>9</v>
       </c>
-      <c r="K1" s="2" t="s">
+      <c r="K1" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="L1" s="2" t="s">
+      <c r="L1" s="3" t="s">
         <v>11</v>
       </c>
-      <c r="M1" s="2" t="s">
+      <c r="M1" s="3" t="s">
         <v>12</v>
       </c>
-      <c r="N1" s="2" t="s">
+      <c r="N1" s="3" t="s">
         <v>13</v>
       </c>
-      <c r="O1" s="2" t="s">
+      <c r="O1" s="3" t="s">
         <v>14</v>
       </c>
-      <c r="P1" s="2" t="s">
+      <c r="P1" s="3" t="s">
         <v>15</v>
       </c>
-      <c r="Q1" s="2" t="s">
+      <c r="Q1" s="3" t="s">
         <v>16</v>
       </c>
-      <c r="R1" s="2" t="s">
+      <c r="R1" s="3" t="s">
         <v>17</v>
       </c>
-      <c r="S1" s="2" t="s">
+      <c r="S1" s="3" t="s">
         <v>18</v>
       </c>
-      <c r="T1" s="2" t="s">
+      <c r="T1" s="3" t="s">
         <v>19</v>
       </c>
-      <c r="U1" s="2" t="s">
+      <c r="U1" s="3" t="s">
         <v>20</v>
       </c>
-      <c r="V1" s="2" t="s">
+      <c r="V1" s="3" t="s">
         <v>21</v>
       </c>
-      <c r="W1" s="2" t="s">
+      <c r="W1" s="3" t="s">
         <v>22</v>
       </c>
-      <c r="X1" s="2" t="s">
+      <c r="X1" s="3" t="s">
         <v>23</v>
       </c>
-      <c r="Y1" s="2" t="s">
+      <c r="Y1" s="3" t="s">
         <v>24</v>
       </c>
-      <c r="Z1" s="2" t="s">
+      <c r="Z1" s="3" t="s">
         <v>25</v>
       </c>
-      <c r="AA1" s="2" t="s">
+      <c r="AA1" s="3" t="s">
         <v>26</v>
       </c>
-      <c r="AB1" s="2" t="s">
+      <c r="AB1" s="3" t="s">
         <v>27</v>
       </c>
-      <c r="AC1" s="2" t="s">
+      <c r="AC1" s="3" t="s">
         <v>28</v>
       </c>
-      <c r="AD1" s="2" t="s">
+      <c r="AD1" s="3" t="s">
         <v>29</v>
       </c>
-      <c r="AE1" s="2" t="s">
+      <c r="AE1" s="3" t="s">
         <v>30</v>
       </c>
       <c r="AF1" s="2" t="s">
@@ -638,7 +638,7 @@
       <c r="BL1" s="2" t="s">
         <v>63</v>
       </c>
-      <c r="BM1" s="2" t="s">
+      <c r="BM1" s="0" t="s">
         <v>64</v>
       </c>
     </row>
@@ -646,8 +646,8 @@
       <c r="A2" s="1" t="n">
         <v>43876</v>
       </c>
-      <c r="B2" s="3"/>
-      <c r="D2" s="3"/>
+      <c r="B2" s="4"/>
+      <c r="D2" s="4"/>
       <c r="F2" s="2" t="n">
         <v>5.5</v>
       </c>
@@ -705,26 +705,26 @@
       <c r="AJ2" s="2" t="n">
         <v>-1.9</v>
       </c>
-      <c r="AK2" s="3"/>
-      <c r="AL2" s="3"/>
-      <c r="AM2" s="3"/>
-      <c r="AN2" s="3"/>
+      <c r="AK2" s="4"/>
+      <c r="AL2" s="4"/>
+      <c r="AM2" s="4"/>
+      <c r="AN2" s="4"/>
       <c r="AO2" s="2" t="n">
         <v>30.6</v>
       </c>
-      <c r="AP2" s="3"/>
-      <c r="AQ2" s="3"/>
-      <c r="AR2" s="3"/>
-      <c r="AS2" s="3"/>
+      <c r="AP2" s="4"/>
+      <c r="AQ2" s="4"/>
+      <c r="AR2" s="4"/>
+      <c r="AS2" s="4"/>
       <c r="AY2" s="2" t="n">
         <v>12.6</v>
       </c>
-      <c r="AZ2" s="3"/>
-      <c r="BA2" s="3"/>
-      <c r="BB2" s="3"/>
-      <c r="BG2" s="3"/>
-      <c r="BH2" s="3"/>
-      <c r="BK2" s="3"/>
+      <c r="AZ2" s="4"/>
+      <c r="BA2" s="4"/>
+      <c r="BB2" s="4"/>
+      <c r="BG2" s="4"/>
+      <c r="BH2" s="4"/>
+      <c r="BK2" s="4"/>
       <c r="BM2" s="2" t="n">
         <v>-2.7</v>
       </c>
@@ -733,8 +733,8 @@
       <c r="A3" s="1" t="n">
         <v>43905</v>
       </c>
-      <c r="B3" s="3"/>
-      <c r="D3" s="3"/>
+      <c r="B3" s="4"/>
+      <c r="D3" s="4"/>
       <c r="F3" s="2" t="n">
         <v>-9.8</v>
       </c>
@@ -792,26 +792,26 @@
       <c r="AJ3" s="2" t="n">
         <v>-21.2</v>
       </c>
-      <c r="AK3" s="3"/>
-      <c r="AL3" s="3"/>
-      <c r="AM3" s="3"/>
-      <c r="AN3" s="3"/>
+      <c r="AK3" s="4"/>
+      <c r="AL3" s="4"/>
+      <c r="AM3" s="4"/>
+      <c r="AN3" s="4"/>
       <c r="AO3" s="2" t="n">
         <v>-11.8</v>
       </c>
-      <c r="AP3" s="3"/>
-      <c r="AQ3" s="3"/>
-      <c r="AR3" s="3"/>
-      <c r="AS3" s="3"/>
+      <c r="AP3" s="4"/>
+      <c r="AQ3" s="4"/>
+      <c r="AR3" s="4"/>
+      <c r="AS3" s="4"/>
       <c r="AY3" s="2" t="n">
         <v>-46.4</v>
       </c>
-      <c r="AZ3" s="3"/>
-      <c r="BA3" s="3"/>
-      <c r="BB3" s="3"/>
-      <c r="BG3" s="3"/>
-      <c r="BH3" s="3"/>
-      <c r="BK3" s="3"/>
+      <c r="AZ3" s="4"/>
+      <c r="BA3" s="4"/>
+      <c r="BB3" s="4"/>
+      <c r="BG3" s="4"/>
+      <c r="BH3" s="4"/>
+      <c r="BK3" s="4"/>
       <c r="BM3" s="2" t="n">
         <v>-10.9</v>
       </c>
@@ -820,8 +820,8 @@
       <c r="A4" s="1" t="n">
         <v>43936</v>
       </c>
-      <c r="B4" s="3"/>
-      <c r="D4" s="3"/>
+      <c r="B4" s="4"/>
+      <c r="D4" s="4"/>
       <c r="F4" s="2" t="n">
         <v>-26</v>
       </c>
@@ -879,25 +879,25 @@
       <c r="AJ4" s="2" t="n">
         <v>-66.2</v>
       </c>
-      <c r="AK4" s="3"/>
-      <c r="AL4" s="3"/>
-      <c r="AM4" s="3"/>
-      <c r="AN4" s="3"/>
+      <c r="AK4" s="4"/>
+      <c r="AL4" s="4"/>
+      <c r="AM4" s="4"/>
+      <c r="AN4" s="4"/>
       <c r="AO4" s="2" t="n">
         <v>-55.9</v>
       </c>
-      <c r="AP4" s="3"/>
-      <c r="AQ4" s="3"/>
-      <c r="AR4" s="3"/>
-      <c r="AS4" s="3"/>
+      <c r="AP4" s="4"/>
+      <c r="AQ4" s="4"/>
+      <c r="AR4" s="4"/>
+      <c r="AS4" s="4"/>
       <c r="AY4" s="2" t="n">
         <v>-79.4</v>
       </c>
-      <c r="AZ4" s="3"/>
-      <c r="BA4" s="3"/>
-      <c r="BG4" s="3"/>
-      <c r="BH4" s="3"/>
-      <c r="BK4" s="3"/>
+      <c r="AZ4" s="4"/>
+      <c r="BA4" s="4"/>
+      <c r="BG4" s="4"/>
+      <c r="BH4" s="4"/>
+      <c r="BK4" s="4"/>
       <c r="BM4" s="2" t="n">
         <v>-36.1</v>
       </c>
@@ -906,8 +906,8 @@
       <c r="A5" s="1" t="n">
         <v>43966</v>
       </c>
-      <c r="B5" s="3"/>
-      <c r="D5" s="3"/>
+      <c r="B5" s="4"/>
+      <c r="D5" s="4"/>
       <c r="F5" s="2" t="n">
         <v>-25.6</v>
       </c>
@@ -965,25 +965,25 @@
       <c r="AJ5" s="2" t="n">
         <v>-32</v>
       </c>
-      <c r="AK5" s="3"/>
-      <c r="AL5" s="3"/>
-      <c r="AM5" s="3"/>
-      <c r="AN5" s="3"/>
+      <c r="AK5" s="4"/>
+      <c r="AL5" s="4"/>
+      <c r="AM5" s="4"/>
+      <c r="AN5" s="4"/>
       <c r="AO5" s="2" t="n">
         <v>-41.4</v>
       </c>
-      <c r="AP5" s="3"/>
-      <c r="AQ5" s="3"/>
-      <c r="AR5" s="3"/>
-      <c r="AS5" s="3"/>
+      <c r="AP5" s="4"/>
+      <c r="AQ5" s="4"/>
+      <c r="AR5" s="4"/>
+      <c r="AS5" s="4"/>
       <c r="AY5" s="2" t="n">
         <v>-67.5</v>
       </c>
-      <c r="AZ5" s="3"/>
-      <c r="BA5" s="3"/>
-      <c r="BG5" s="3"/>
-      <c r="BH5" s="3"/>
-      <c r="BK5" s="3"/>
+      <c r="AZ5" s="4"/>
+      <c r="BA5" s="4"/>
+      <c r="BG5" s="4"/>
+      <c r="BH5" s="4"/>
+      <c r="BK5" s="4"/>
       <c r="BM5" s="2" t="n">
         <v>-34.4</v>
       </c>
@@ -992,8 +992,8 @@
       <c r="A6" s="1" t="n">
         <v>43997</v>
       </c>
-      <c r="B6" s="3"/>
-      <c r="D6" s="3"/>
+      <c r="B6" s="4"/>
+      <c r="D6" s="4"/>
       <c r="F6" s="2" t="n">
         <v>-19.8</v>
       </c>
@@ -1051,25 +1051,25 @@
       <c r="AJ6" s="2" t="n">
         <v>-0.5</v>
       </c>
-      <c r="AK6" s="3"/>
-      <c r="AL6" s="3"/>
-      <c r="AM6" s="3"/>
-      <c r="AN6" s="3"/>
+      <c r="AK6" s="4"/>
+      <c r="AL6" s="4"/>
+      <c r="AM6" s="4"/>
+      <c r="AN6" s="4"/>
       <c r="AO6" s="2" t="n">
         <v>-4.4</v>
       </c>
-      <c r="AP6" s="3"/>
-      <c r="AQ6" s="3"/>
-      <c r="AR6" s="3"/>
-      <c r="AS6" s="3"/>
+      <c r="AP6" s="4"/>
+      <c r="AQ6" s="4"/>
+      <c r="AR6" s="4"/>
+      <c r="AS6" s="4"/>
       <c r="AY6" s="2" t="n">
         <v>-33.1</v>
       </c>
-      <c r="AZ6" s="3"/>
-      <c r="BA6" s="3"/>
-      <c r="BG6" s="3"/>
-      <c r="BH6" s="3"/>
-      <c r="BK6" s="3"/>
+      <c r="AZ6" s="4"/>
+      <c r="BA6" s="4"/>
+      <c r="BG6" s="4"/>
+      <c r="BH6" s="4"/>
+      <c r="BK6" s="4"/>
       <c r="BM6" s="2" t="n">
         <v>-22.9</v>
       </c>
@@ -1078,8 +1078,8 @@
       <c r="A7" s="1" t="n">
         <v>44027</v>
       </c>
-      <c r="B7" s="3"/>
-      <c r="D7" s="3"/>
+      <c r="B7" s="4"/>
+      <c r="D7" s="4"/>
       <c r="F7" s="2" t="n">
         <v>-11.2</v>
       </c>
@@ -1137,25 +1137,25 @@
       <c r="AJ7" s="2" t="n">
         <v>5.4</v>
       </c>
-      <c r="AK7" s="3"/>
-      <c r="AL7" s="3"/>
-      <c r="AM7" s="3"/>
-      <c r="AN7" s="3"/>
+      <c r="AK7" s="4"/>
+      <c r="AL7" s="4"/>
+      <c r="AM7" s="4"/>
+      <c r="AN7" s="4"/>
       <c r="AO7" s="2" t="n">
         <v>1.8</v>
       </c>
-      <c r="AP7" s="3"/>
-      <c r="AQ7" s="3"/>
-      <c r="AR7" s="3"/>
-      <c r="AS7" s="3"/>
+      <c r="AP7" s="4"/>
+      <c r="AQ7" s="4"/>
+      <c r="AR7" s="4"/>
+      <c r="AS7" s="4"/>
       <c r="AY7" s="2" t="n">
         <v>-23.7</v>
       </c>
-      <c r="AZ7" s="3"/>
-      <c r="BA7" s="3"/>
-      <c r="BG7" s="3"/>
-      <c r="BH7" s="3"/>
-      <c r="BK7" s="3"/>
+      <c r="AZ7" s="4"/>
+      <c r="BA7" s="4"/>
+      <c r="BG7" s="4"/>
+      <c r="BH7" s="4"/>
+      <c r="BK7" s="4"/>
       <c r="BM7" s="2" t="n">
         <v>-13.9</v>
       </c>
@@ -1164,8 +1164,8 @@
       <c r="A8" s="1" t="n">
         <v>44058</v>
       </c>
-      <c r="B8" s="3"/>
-      <c r="D8" s="3"/>
+      <c r="B8" s="4"/>
+      <c r="D8" s="4"/>
       <c r="F8" s="2" t="n">
         <v>-8</v>
       </c>
@@ -1223,25 +1223,25 @@
       <c r="AJ8" s="2" t="n">
         <v>-5</v>
       </c>
-      <c r="AK8" s="3"/>
-      <c r="AL8" s="3"/>
-      <c r="AM8" s="3"/>
-      <c r="AN8" s="3"/>
+      <c r="AK8" s="4"/>
+      <c r="AL8" s="4"/>
+      <c r="AM8" s="4"/>
+      <c r="AN8" s="4"/>
       <c r="AO8" s="2" t="n">
         <v>18.6</v>
       </c>
-      <c r="AP8" s="3"/>
-      <c r="AQ8" s="3"/>
-      <c r="AR8" s="3"/>
-      <c r="AS8" s="3"/>
+      <c r="AP8" s="4"/>
+      <c r="AQ8" s="4"/>
+      <c r="AR8" s="4"/>
+      <c r="AS8" s="4"/>
       <c r="AY8" s="2" t="n">
         <v>-39.1</v>
       </c>
-      <c r="AZ8" s="3"/>
-      <c r="BA8" s="3"/>
-      <c r="BG8" s="3"/>
-      <c r="BH8" s="3"/>
-      <c r="BK8" s="3"/>
+      <c r="AZ8" s="4"/>
+      <c r="BA8" s="4"/>
+      <c r="BG8" s="4"/>
+      <c r="BH8" s="4"/>
+      <c r="BK8" s="4"/>
       <c r="BM8" s="2" t="n">
         <v>-12</v>
       </c>
@@ -1250,8 +1250,8 @@
       <c r="A9" s="1" t="n">
         <v>44089</v>
       </c>
-      <c r="B9" s="3"/>
-      <c r="D9" s="3"/>
+      <c r="B9" s="4"/>
+      <c r="D9" s="4"/>
       <c r="F9" s="2" t="n">
         <v>-15.5</v>
       </c>
@@ -1309,25 +1309,25 @@
       <c r="AJ9" s="2" t="n">
         <v>-3.2</v>
       </c>
-      <c r="AK9" s="3"/>
-      <c r="AL9" s="3"/>
-      <c r="AM9" s="3"/>
-      <c r="AN9" s="3"/>
+      <c r="AK9" s="4"/>
+      <c r="AL9" s="4"/>
+      <c r="AM9" s="4"/>
+      <c r="AN9" s="4"/>
       <c r="AO9" s="2" t="n">
         <v>13.4</v>
       </c>
-      <c r="AP9" s="3"/>
-      <c r="AQ9" s="3"/>
-      <c r="AR9" s="3"/>
-      <c r="AS9" s="3"/>
+      <c r="AP9" s="4"/>
+      <c r="AQ9" s="4"/>
+      <c r="AR9" s="4"/>
+      <c r="AS9" s="4"/>
       <c r="AY9" s="2" t="n">
         <v>-18.8</v>
       </c>
-      <c r="AZ9" s="3"/>
-      <c r="BA9" s="3"/>
-      <c r="BG9" s="3"/>
-      <c r="BH9" s="3"/>
-      <c r="BK9" s="3"/>
+      <c r="AZ9" s="4"/>
+      <c r="BA9" s="4"/>
+      <c r="BG9" s="4"/>
+      <c r="BH9" s="4"/>
+      <c r="BK9" s="4"/>
       <c r="BM9" s="2" t="n">
         <v>-10.8</v>
       </c>
@@ -1336,8 +1336,8 @@
       <c r="A10" s="1" t="n">
         <v>44119</v>
       </c>
-      <c r="B10" s="3"/>
-      <c r="D10" s="3"/>
+      <c r="B10" s="4"/>
+      <c r="D10" s="4"/>
       <c r="F10" s="2" t="n">
         <v>-14.6</v>
       </c>
@@ -1395,25 +1395,25 @@
       <c r="AJ10" s="2" t="n">
         <v>-8.8</v>
       </c>
-      <c r="AK10" s="3"/>
-      <c r="AL10" s="3"/>
-      <c r="AM10" s="3"/>
-      <c r="AN10" s="3"/>
+      <c r="AK10" s="4"/>
+      <c r="AL10" s="4"/>
+      <c r="AM10" s="4"/>
+      <c r="AN10" s="4"/>
       <c r="AO10" s="2" t="n">
         <v>-3.8</v>
       </c>
-      <c r="AP10" s="3"/>
-      <c r="AQ10" s="3"/>
-      <c r="AR10" s="3"/>
-      <c r="AS10" s="3"/>
+      <c r="AP10" s="4"/>
+      <c r="AQ10" s="4"/>
+      <c r="AR10" s="4"/>
+      <c r="AS10" s="4"/>
       <c r="AY10" s="2" t="n">
         <v>-14.5</v>
       </c>
-      <c r="AZ10" s="3"/>
-      <c r="BA10" s="3"/>
-      <c r="BG10" s="3"/>
-      <c r="BH10" s="3"/>
-      <c r="BK10" s="3"/>
+      <c r="AZ10" s="4"/>
+      <c r="BA10" s="4"/>
+      <c r="BG10" s="4"/>
+      <c r="BH10" s="4"/>
+      <c r="BK10" s="4"/>
       <c r="BM10" s="2" t="n">
         <v>-8.5</v>
       </c>
@@ -1422,8 +1422,8 @@
       <c r="A11" s="1" t="n">
         <v>44150</v>
       </c>
-      <c r="B11" s="4"/>
-      <c r="D11" s="4"/>
+      <c r="B11" s="3"/>
+      <c r="D11" s="3"/>
       <c r="F11" s="2" t="n">
         <v>-13.3</v>
       </c>
@@ -1481,25 +1481,25 @@
       <c r="AJ11" s="2" t="n">
         <v>-19</v>
       </c>
-      <c r="AK11" s="4"/>
-      <c r="AL11" s="4"/>
-      <c r="AM11" s="4"/>
-      <c r="AN11" s="4"/>
+      <c r="AK11" s="3"/>
+      <c r="AL11" s="3"/>
+      <c r="AM11" s="3"/>
+      <c r="AN11" s="3"/>
       <c r="AO11" s="2" t="n">
         <v>-10.3</v>
       </c>
-      <c r="AP11" s="4"/>
-      <c r="AQ11" s="4"/>
-      <c r="AR11" s="4"/>
-      <c r="AS11" s="4"/>
+      <c r="AP11" s="3"/>
+      <c r="AQ11" s="3"/>
+      <c r="AR11" s="3"/>
+      <c r="AS11" s="3"/>
       <c r="AY11" s="2" t="n">
         <v>-2</v>
       </c>
-      <c r="AZ11" s="4"/>
-      <c r="BA11" s="4"/>
-      <c r="BG11" s="4"/>
-      <c r="BH11" s="4"/>
-      <c r="BK11" s="4"/>
+      <c r="AZ11" s="3"/>
+      <c r="BA11" s="3"/>
+      <c r="BG11" s="3"/>
+      <c r="BH11" s="3"/>
+      <c r="BK11" s="3"/>
       <c r="BM11" s="2" t="n">
         <v>-12.1</v>
       </c>
@@ -1508,8 +1508,8 @@
       <c r="A12" s="1" t="n">
         <v>44180</v>
       </c>
-      <c r="B12" s="4"/>
-      <c r="D12" s="4"/>
+      <c r="B12" s="3"/>
+      <c r="D12" s="3"/>
       <c r="F12" s="2" t="n">
         <v>-14</v>
       </c>
@@ -1567,25 +1567,25 @@
       <c r="AJ12" s="2" t="n">
         <v>-16.5</v>
       </c>
-      <c r="AK12" s="4"/>
-      <c r="AL12" s="4"/>
-      <c r="AM12" s="4"/>
-      <c r="AN12" s="4"/>
+      <c r="AK12" s="3"/>
+      <c r="AL12" s="3"/>
+      <c r="AM12" s="3"/>
+      <c r="AN12" s="3"/>
       <c r="AO12" s="2" t="n">
         <v>-6.5</v>
       </c>
-      <c r="AP12" s="4"/>
-      <c r="AQ12" s="4"/>
-      <c r="AR12" s="4"/>
-      <c r="AS12" s="4"/>
+      <c r="AP12" s="3"/>
+      <c r="AQ12" s="3"/>
+      <c r="AR12" s="3"/>
+      <c r="AS12" s="3"/>
       <c r="AY12" s="2" t="n">
         <v>-11.7</v>
       </c>
-      <c r="AZ12" s="4"/>
-      <c r="BA12" s="4"/>
-      <c r="BG12" s="4"/>
-      <c r="BH12" s="4"/>
-      <c r="BK12" s="4"/>
+      <c r="AZ12" s="3"/>
+      <c r="BA12" s="3"/>
+      <c r="BG12" s="3"/>
+      <c r="BH12" s="3"/>
+      <c r="BK12" s="3"/>
       <c r="BM12" s="2" t="n">
         <v>-8.4</v>
       </c>
@@ -1594,8 +1594,8 @@
       <c r="A13" s="1" t="n">
         <v>44211</v>
       </c>
-      <c r="B13" s="4"/>
-      <c r="D13" s="4"/>
+      <c r="B13" s="3"/>
+      <c r="D13" s="3"/>
       <c r="F13" s="2" t="n">
         <v>-12.1</v>
       </c>
@@ -1653,25 +1653,25 @@
       <c r="AJ13" s="2" t="n">
         <v>-13.3</v>
       </c>
-      <c r="AK13" s="4"/>
-      <c r="AL13" s="4"/>
-      <c r="AM13" s="4"/>
-      <c r="AN13" s="4"/>
+      <c r="AK13" s="3"/>
+      <c r="AL13" s="3"/>
+      <c r="AM13" s="3"/>
+      <c r="AN13" s="3"/>
       <c r="AO13" s="2" t="n">
         <v>-3.9</v>
       </c>
-      <c r="AP13" s="4"/>
-      <c r="AQ13" s="4"/>
-      <c r="AR13" s="4"/>
-      <c r="AS13" s="4"/>
+      <c r="AP13" s="3"/>
+      <c r="AQ13" s="3"/>
+      <c r="AR13" s="3"/>
+      <c r="AS13" s="3"/>
       <c r="AY13" s="2" t="n">
         <v>-30</v>
       </c>
-      <c r="AZ13" s="4"/>
-      <c r="BA13" s="4"/>
-      <c r="BG13" s="4"/>
-      <c r="BH13" s="4"/>
-      <c r="BK13" s="4"/>
+      <c r="AZ13" s="3"/>
+      <c r="BA13" s="3"/>
+      <c r="BG13" s="3"/>
+      <c r="BH13" s="3"/>
+      <c r="BK13" s="3"/>
       <c r="BM13" s="2" t="n">
         <v>-7.5</v>
       </c>
@@ -1680,8 +1680,8 @@
       <c r="A14" s="1" t="n">
         <v>44242</v>
       </c>
-      <c r="B14" s="4"/>
-      <c r="D14" s="4"/>
+      <c r="B14" s="3"/>
+      <c r="D14" s="3"/>
       <c r="F14" s="2" t="n">
         <v>-9.3</v>
       </c>
@@ -1739,25 +1739,25 @@
       <c r="AJ14" s="2" t="n">
         <v>-10.6</v>
       </c>
-      <c r="AK14" s="4"/>
-      <c r="AL14" s="4"/>
-      <c r="AM14" s="4"/>
-      <c r="AN14" s="4"/>
+      <c r="AK14" s="3"/>
+      <c r="AL14" s="3"/>
+      <c r="AM14" s="3"/>
+      <c r="AN14" s="3"/>
       <c r="AO14" s="2" t="n">
         <v>33.3</v>
       </c>
-      <c r="AP14" s="4"/>
-      <c r="AQ14" s="4"/>
-      <c r="AR14" s="4"/>
-      <c r="AS14" s="4"/>
+      <c r="AP14" s="3"/>
+      <c r="AQ14" s="3"/>
+      <c r="AR14" s="3"/>
+      <c r="AS14" s="3"/>
       <c r="AY14" s="2" t="n">
         <v>-16.5</v>
       </c>
-      <c r="AZ14" s="4"/>
-      <c r="BA14" s="4"/>
-      <c r="BG14" s="4"/>
-      <c r="BH14" s="4"/>
-      <c r="BK14" s="4"/>
+      <c r="AZ14" s="3"/>
+      <c r="BA14" s="3"/>
+      <c r="BG14" s="3"/>
+      <c r="BH14" s="3"/>
+      <c r="BK14" s="3"/>
       <c r="BM14" s="2" t="n">
         <v>-4.4</v>
       </c>
@@ -1766,8 +1766,8 @@
       <c r="A15" s="1" t="n">
         <v>44270</v>
       </c>
-      <c r="B15" s="4"/>
-      <c r="D15" s="4"/>
+      <c r="B15" s="3"/>
+      <c r="D15" s="3"/>
       <c r="F15" s="2" t="n">
         <v>-9.6</v>
       </c>
@@ -1825,25 +1825,25 @@
       <c r="AJ15" s="2" t="n">
         <v>3.7</v>
       </c>
-      <c r="AK15" s="4"/>
-      <c r="AL15" s="4"/>
-      <c r="AM15" s="4"/>
-      <c r="AN15" s="4"/>
+      <c r="AK15" s="3"/>
+      <c r="AL15" s="3"/>
+      <c r="AM15" s="3"/>
+      <c r="AN15" s="3"/>
       <c r="AO15" s="2" t="n">
         <v>38.9</v>
       </c>
-      <c r="AP15" s="4"/>
-      <c r="AQ15" s="4"/>
-      <c r="AR15" s="4"/>
-      <c r="AS15" s="4"/>
+      <c r="AP15" s="3"/>
+      <c r="AQ15" s="3"/>
+      <c r="AR15" s="3"/>
+      <c r="AS15" s="3"/>
       <c r="AY15" s="2" t="n">
         <v>-1.1</v>
       </c>
-      <c r="AZ15" s="4"/>
-      <c r="BA15" s="4"/>
-      <c r="BG15" s="4"/>
-      <c r="BH15" s="4"/>
-      <c r="BK15" s="4"/>
+      <c r="AZ15" s="3"/>
+      <c r="BA15" s="3"/>
+      <c r="BG15" s="3"/>
+      <c r="BH15" s="3"/>
+      <c r="BK15" s="3"/>
       <c r="BM15" s="2" t="n">
         <v>-1</v>
       </c>
@@ -1852,8 +1852,8 @@
       <c r="A16" s="1" t="n">
         <v>44301</v>
       </c>
-      <c r="B16" s="4"/>
-      <c r="D16" s="4"/>
+      <c r="B16" s="3"/>
+      <c r="D16" s="3"/>
       <c r="F16" s="2" t="n">
         <v>-5.4</v>
       </c>
@@ -1911,25 +1911,25 @@
       <c r="AJ16" s="2" t="n">
         <v>5.1</v>
       </c>
-      <c r="AK16" s="4"/>
-      <c r="AL16" s="4"/>
-      <c r="AM16" s="4"/>
-      <c r="AN16" s="4"/>
+      <c r="AK16" s="3"/>
+      <c r="AL16" s="3"/>
+      <c r="AM16" s="3"/>
+      <c r="AN16" s="3"/>
       <c r="AO16" s="2" t="n">
         <v>56.4</v>
       </c>
-      <c r="AP16" s="4"/>
-      <c r="AQ16" s="4"/>
-      <c r="AR16" s="4"/>
-      <c r="AS16" s="4"/>
+      <c r="AP16" s="3"/>
+      <c r="AQ16" s="3"/>
+      <c r="AR16" s="3"/>
+      <c r="AS16" s="3"/>
       <c r="AY16" s="2" t="n">
         <v>8.4</v>
       </c>
-      <c r="AZ16" s="4"/>
-      <c r="BA16" s="4"/>
-      <c r="BG16" s="4"/>
-      <c r="BH16" s="4"/>
-      <c r="BK16" s="4"/>
+      <c r="AZ16" s="3"/>
+      <c r="BA16" s="3"/>
+      <c r="BG16" s="3"/>
+      <c r="BH16" s="3"/>
+      <c r="BK16" s="3"/>
       <c r="BM16" s="2" t="n">
         <v>4.4</v>
       </c>
@@ -1938,8 +1938,8 @@
       <c r="A17" s="1" t="n">
         <v>44331</v>
       </c>
-      <c r="B17" s="4"/>
-      <c r="D17" s="4"/>
+      <c r="B17" s="3"/>
+      <c r="D17" s="3"/>
       <c r="F17" s="2" t="n">
         <v>-9.5</v>
       </c>
@@ -1997,25 +1997,25 @@
       <c r="AJ17" s="2" t="n">
         <v>16.7</v>
       </c>
-      <c r="AK17" s="4"/>
-      <c r="AL17" s="4"/>
-      <c r="AM17" s="4"/>
-      <c r="AN17" s="4"/>
+      <c r="AK17" s="3"/>
+      <c r="AL17" s="3"/>
+      <c r="AM17" s="3"/>
+      <c r="AN17" s="3"/>
       <c r="AO17" s="2" t="n">
         <v>40.3</v>
       </c>
-      <c r="AP17" s="4"/>
-      <c r="AQ17" s="4"/>
-      <c r="AR17" s="4"/>
-      <c r="AS17" s="4"/>
+      <c r="AP17" s="3"/>
+      <c r="AQ17" s="3"/>
+      <c r="AR17" s="3"/>
+      <c r="AS17" s="3"/>
       <c r="AY17" s="2" t="n">
         <v>6.6</v>
       </c>
-      <c r="AZ17" s="4"/>
-      <c r="BA17" s="4"/>
-      <c r="BG17" s="4"/>
-      <c r="BH17" s="4"/>
-      <c r="BK17" s="4"/>
+      <c r="AZ17" s="3"/>
+      <c r="BA17" s="3"/>
+      <c r="BG17" s="3"/>
+      <c r="BH17" s="3"/>
+      <c r="BK17" s="3"/>
       <c r="BM17" s="2" t="n">
         <v>6.5</v>
       </c>
@@ -2024,8 +2024,8 @@
       <c r="A18" s="1" t="n">
         <v>44362</v>
       </c>
-      <c r="B18" s="4"/>
-      <c r="D18" s="4"/>
+      <c r="B18" s="3"/>
+      <c r="D18" s="3"/>
       <c r="F18" s="2" t="n">
         <v>-5.7</v>
       </c>
@@ -2083,25 +2083,25 @@
       <c r="AJ18" s="2" t="n">
         <v>20.8</v>
       </c>
-      <c r="AK18" s="4"/>
-      <c r="AL18" s="4"/>
-      <c r="AM18" s="4"/>
-      <c r="AN18" s="4"/>
+      <c r="AK18" s="3"/>
+      <c r="AL18" s="3"/>
+      <c r="AM18" s="3"/>
+      <c r="AN18" s="3"/>
       <c r="AO18" s="2" t="n">
         <v>43.2</v>
       </c>
-      <c r="AP18" s="4"/>
-      <c r="AQ18" s="4"/>
-      <c r="AR18" s="4"/>
-      <c r="AS18" s="4"/>
+      <c r="AP18" s="3"/>
+      <c r="AQ18" s="3"/>
+      <c r="AR18" s="3"/>
+      <c r="AS18" s="3"/>
       <c r="AY18" s="2" t="n">
         <v>26.2</v>
       </c>
-      <c r="AZ18" s="4"/>
-      <c r="BA18" s="4"/>
-      <c r="BG18" s="4"/>
-      <c r="BH18" s="4"/>
-      <c r="BK18" s="4"/>
+      <c r="AZ18" s="3"/>
+      <c r="BA18" s="3"/>
+      <c r="BG18" s="3"/>
+      <c r="BH18" s="3"/>
+      <c r="BK18" s="3"/>
       <c r="BM18" s="2" t="n">
         <v>9.8</v>
       </c>
@@ -2110,8 +2110,8 @@
       <c r="A19" s="1" t="n">
         <v>44392</v>
       </c>
-      <c r="B19" s="4"/>
-      <c r="D19" s="4"/>
+      <c r="B19" s="3"/>
+      <c r="D19" s="3"/>
       <c r="F19" s="2" t="n">
         <v>-4.1</v>
       </c>
@@ -2169,25 +2169,25 @@
       <c r="AJ19" s="2" t="n">
         <v>25.2</v>
       </c>
-      <c r="AK19" s="4"/>
-      <c r="AL19" s="4"/>
-      <c r="AM19" s="4"/>
-      <c r="AN19" s="4"/>
+      <c r="AK19" s="3"/>
+      <c r="AL19" s="3"/>
+      <c r="AM19" s="3"/>
+      <c r="AN19" s="3"/>
       <c r="AO19" s="2" t="n">
         <v>42</v>
       </c>
-      <c r="AP19" s="4"/>
-      <c r="AQ19" s="4"/>
-      <c r="AR19" s="4"/>
-      <c r="AS19" s="4"/>
+      <c r="AP19" s="3"/>
+      <c r="AQ19" s="3"/>
+      <c r="AR19" s="3"/>
+      <c r="AS19" s="3"/>
       <c r="AY19" s="2" t="n">
         <v>20.4</v>
       </c>
-      <c r="AZ19" s="4"/>
-      <c r="BA19" s="4"/>
-      <c r="BG19" s="4"/>
-      <c r="BH19" s="4"/>
-      <c r="BK19" s="4"/>
+      <c r="AZ19" s="3"/>
+      <c r="BA19" s="3"/>
+      <c r="BG19" s="3"/>
+      <c r="BH19" s="3"/>
+      <c r="BK19" s="3"/>
       <c r="BM19" s="2" t="n">
         <v>10.1</v>
       </c>
@@ -2196,8 +2196,8 @@
       <c r="A20" s="1" t="n">
         <v>44423</v>
       </c>
-      <c r="B20" s="4"/>
-      <c r="D20" s="4"/>
+      <c r="B20" s="3"/>
+      <c r="D20" s="3"/>
       <c r="F20" s="2" t="n">
         <v>-3.5</v>
       </c>
@@ -2255,25 +2255,25 @@
       <c r="AJ20" s="2" t="n">
         <v>18.2</v>
       </c>
-      <c r="AK20" s="4"/>
-      <c r="AL20" s="4"/>
-      <c r="AM20" s="4"/>
-      <c r="AN20" s="4"/>
+      <c r="AK20" s="3"/>
+      <c r="AL20" s="3"/>
+      <c r="AM20" s="3"/>
+      <c r="AN20" s="3"/>
       <c r="AO20" s="2" t="n">
         <v>31.5</v>
       </c>
-      <c r="AP20" s="4"/>
-      <c r="AQ20" s="4"/>
-      <c r="AR20" s="4"/>
-      <c r="AS20" s="4"/>
+      <c r="AP20" s="3"/>
+      <c r="AQ20" s="3"/>
+      <c r="AR20" s="3"/>
+      <c r="AS20" s="3"/>
       <c r="AY20" s="2" t="n">
         <v>13.3</v>
       </c>
-      <c r="AZ20" s="4"/>
-      <c r="BA20" s="4"/>
-      <c r="BG20" s="4"/>
-      <c r="BH20" s="4"/>
-      <c r="BK20" s="4"/>
+      <c r="AZ20" s="3"/>
+      <c r="BA20" s="3"/>
+      <c r="BG20" s="3"/>
+      <c r="BH20" s="3"/>
+      <c r="BK20" s="3"/>
       <c r="BM20" s="2" t="n">
         <v>7.6</v>
       </c>
@@ -2282,8 +2282,8 @@
       <c r="A21" s="1" t="n">
         <v>44454</v>
       </c>
-      <c r="B21" s="4"/>
-      <c r="D21" s="4"/>
+      <c r="B21" s="3"/>
+      <c r="D21" s="3"/>
       <c r="F21" s="2" t="n">
         <v>-6.6</v>
       </c>
@@ -2341,25 +2341,25 @@
       <c r="AJ21" s="2" t="n">
         <v>6.2</v>
       </c>
-      <c r="AK21" s="4"/>
-      <c r="AL21" s="4"/>
-      <c r="AM21" s="4"/>
-      <c r="AN21" s="4"/>
+      <c r="AK21" s="3"/>
+      <c r="AL21" s="3"/>
+      <c r="AM21" s="3"/>
+      <c r="AN21" s="3"/>
       <c r="AO21" s="2" t="n">
         <v>33.4</v>
       </c>
-      <c r="AP21" s="4"/>
-      <c r="AQ21" s="4"/>
-      <c r="AR21" s="4"/>
-      <c r="AS21" s="4"/>
+      <c r="AP21" s="3"/>
+      <c r="AQ21" s="3"/>
+      <c r="AR21" s="3"/>
+      <c r="AS21" s="3"/>
       <c r="AY21" s="2" t="n">
         <v>-9.8</v>
       </c>
-      <c r="AZ21" s="4"/>
-      <c r="BA21" s="4"/>
-      <c r="BG21" s="4"/>
-      <c r="BH21" s="4"/>
-      <c r="BK21" s="4"/>
+      <c r="AZ21" s="3"/>
+      <c r="BA21" s="3"/>
+      <c r="BG21" s="3"/>
+      <c r="BH21" s="3"/>
+      <c r="BK21" s="3"/>
       <c r="BM21" s="2" t="n">
         <v>4</v>
       </c>
@@ -2368,8 +2368,8 @@
       <c r="A22" s="1" t="n">
         <v>44484</v>
       </c>
-      <c r="B22" s="4"/>
-      <c r="D22" s="4"/>
+      <c r="B22" s="3"/>
+      <c r="D22" s="3"/>
       <c r="F22" s="2" t="n">
         <v>-4.9</v>
       </c>
@@ -2427,25 +2427,25 @@
       <c r="AJ22" s="2" t="n">
         <v>16.9</v>
       </c>
-      <c r="AK22" s="4"/>
-      <c r="AL22" s="4"/>
-      <c r="AM22" s="4"/>
-      <c r="AN22" s="4"/>
+      <c r="AK22" s="3"/>
+      <c r="AL22" s="3"/>
+      <c r="AM22" s="3"/>
+      <c r="AN22" s="3"/>
       <c r="AO22" s="2" t="n">
         <v>32.6</v>
       </c>
-      <c r="AP22" s="4"/>
-      <c r="AQ22" s="4"/>
-      <c r="AR22" s="4"/>
-      <c r="AS22" s="4"/>
+      <c r="AP22" s="3"/>
+      <c r="AQ22" s="3"/>
+      <c r="AR22" s="3"/>
+      <c r="AS22" s="3"/>
       <c r="AY22" s="2" t="n">
         <v>2.8</v>
       </c>
-      <c r="AZ22" s="4"/>
-      <c r="BA22" s="4"/>
-      <c r="BG22" s="4"/>
-      <c r="BH22" s="4"/>
-      <c r="BK22" s="4"/>
+      <c r="AZ22" s="3"/>
+      <c r="BA22" s="3"/>
+      <c r="BG22" s="3"/>
+      <c r="BH22" s="3"/>
+      <c r="BK22" s="3"/>
       <c r="BM22" s="2" t="n">
         <v>4</v>
       </c>
@@ -2525,7 +2525,7 @@
       <c r="A24" s="1" t="n">
         <v>44545</v>
       </c>
-      <c r="B24" s="4"/>
+      <c r="B24" s="3"/>
       <c r="F24" s="2" t="n">
         <v>2.6</v>
       </c>
@@ -2594,123 +2594,123 @@
       </c>
     </row>
     <row r="25" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B25" s="4"/>
+      <c r="B25" s="3"/>
       <c r="C25" s="5"/>
     </row>
     <row r="26" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B26" s="4"/>
+      <c r="B26" s="3"/>
       <c r="C26" s="5"/>
     </row>
     <row r="27" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B27" s="4"/>
+      <c r="B27" s="3"/>
       <c r="C27" s="6"/>
     </row>
     <row r="28" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B28" s="4"/>
+      <c r="B28" s="3"/>
       <c r="C28" s="5"/>
     </row>
     <row r="29" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B29" s="4"/>
+      <c r="B29" s="3"/>
       <c r="C29" s="7"/>
     </row>
     <row r="30" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B30" s="4"/>
+      <c r="B30" s="3"/>
       <c r="C30" s="7"/>
     </row>
     <row r="31" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B31" s="4"/>
+      <c r="B31" s="3"/>
       <c r="C31" s="5"/>
     </row>
     <row r="32" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B32" s="4"/>
+      <c r="B32" s="3"/>
       <c r="C32" s="5"/>
     </row>
     <row r="33" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B33" s="4"/>
+      <c r="B33" s="3"/>
       <c r="C33" s="5"/>
     </row>
     <row r="34" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B34" s="4"/>
+      <c r="B34" s="3"/>
       <c r="C34" s="5"/>
     </row>
     <row r="35" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B35" s="4"/>
+      <c r="B35" s="3"/>
       <c r="C35" s="8"/>
     </row>
     <row r="36" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B36" s="4"/>
+      <c r="B36" s="3"/>
       <c r="C36" s="6"/>
     </row>
     <row r="37" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B37" s="4"/>
+      <c r="B37" s="3"/>
       <c r="C37" s="5"/>
     </row>
     <row r="38" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B38" s="4"/>
+      <c r="B38" s="3"/>
       <c r="C38" s="5"/>
     </row>
     <row r="39" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B39" s="4"/>
+      <c r="B39" s="3"/>
       <c r="C39" s="5"/>
     </row>
     <row r="40" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B40" s="4"/>
+      <c r="B40" s="3"/>
       <c r="C40" s="5"/>
     </row>
     <row r="41" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B41" s="4"/>
+      <c r="B41" s="3"/>
       <c r="C41" s="5"/>
     </row>
     <row r="42" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B42" s="4"/>
+      <c r="B42" s="3"/>
       <c r="C42" s="5"/>
     </row>
     <row r="43" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B43" s="4"/>
+      <c r="B43" s="3"/>
       <c r="C43" s="5"/>
     </row>
     <row r="44" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B44" s="4"/>
+      <c r="B44" s="3"/>
       <c r="C44" s="5"/>
     </row>
     <row r="45" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B45" s="4"/>
+      <c r="B45" s="3"/>
       <c r="C45" s="5"/>
     </row>
     <row r="46" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B46" s="4"/>
+      <c r="B46" s="3"/>
       <c r="C46" s="5"/>
     </row>
     <row r="47" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B47" s="4"/>
+      <c r="B47" s="3"/>
       <c r="C47" s="5"/>
     </row>
     <row r="48" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B48" s="4"/>
+      <c r="B48" s="3"/>
       <c r="C48" s="7"/>
     </row>
     <row r="49" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B49" s="4"/>
+      <c r="B49" s="3"/>
       <c r="C49" s="7"/>
     </row>
     <row r="50" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B50" s="4"/>
+      <c r="B50" s="3"/>
       <c r="C50" s="6"/>
     </row>
     <row r="51" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B51" s="4"/>
+      <c r="B51" s="3"/>
       <c r="C51" s="7"/>
     </row>
     <row r="52" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B52" s="4"/>
+      <c r="B52" s="3"/>
       <c r="C52" s="8"/>
     </row>
     <row r="53" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B53" s="4"/>
+      <c r="B53" s="3"/>
       <c r="C53" s="5"/>
     </row>
     <row r="54" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B54" s="4"/>
+      <c r="B54" s="3"/>
       <c r="C54" s="5"/>
     </row>
   </sheetData>
